--- a/wb.xlsx
+++ b/wb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="6960" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>test1</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
   </si>
 </sst>
 </file>
@@ -402,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -448,6 +463,46 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
